--- a/Dataset/Genshin Impact Revenue.xlsx
+++ b/Dataset/Genshin Impact Revenue.xlsx
@@ -2165,14 +2165,14 @@
         <v>2.0</v>
       </c>
       <c r="I40" s="10">
-        <v>1.4759312E7</v>
+        <v>1.8437409E7</v>
       </c>
       <c r="J40" s="8">
         <v>19.0</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="1"/>
-        <v>776805.8947</v>
+        <v>970389.9474</v>
       </c>
     </row>
     <row r="41">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="I42" s="15">
         <f>AVERAGE(I2:I40)</f>
-        <v>17545934.38</v>
+        <v>17640244.56</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="4">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="I47" s="16">
         <f>QUARTILE(I2:I40,2)</f>
-        <v>15681840</v>
+        <v>15731680</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="17">
         <f>QUARTILE(K2:K40,2)</f>
-        <v>791152.8095</v>
+        <v>809257.4286</v>
       </c>
     </row>
     <row r="48">

--- a/Dataset/Genshin Impact Revenue.xlsx
+++ b/Dataset/Genshin Impact Revenue.xlsx
@@ -340,7 +340,7 @@
     <t>Nahida &amp; Yoimiya (2nd Rerun)</t>
   </si>
   <si>
-    <t>Tartaglia (4th Rerun) &amp; Yae Miko (2nd Rerun)</t>
+    <t>Tartaglia (3rd Rerun) &amp; Yae Miko (2nd Rerun)</t>
   </si>
   <si>
     <t>Mean</t>
